--- a/part2/mandelbrot_summary.xlsx
+++ b/part2/mandelbrot_summary.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fullstackmachine/Desktop/BevCode/224_HPC/hw/hw2/part2/submit_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babadine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="920" windowWidth="21680" windowHeight="11360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Serial</t>
   </si>
@@ -56,9 +56,6 @@
     <t>64 Cores/8Nodes</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t> 0.666522</t>
   </si>
   <si>
@@ -67,12 +64,18 @@
   <si>
     <t>64 Cores/2Nodes</t>
   </si>
+  <si>
+    <t>Parallelism</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,8 +154,4681 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Nodes for 48 Processes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$8,Sheet1!$I$8,Sheet1!$M$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.46174639999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97873139999999981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8565256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56C8-49D2-B91E-207E355F0C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$8,Sheet1!$J$8,Sheet1!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45620120000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6148739999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69869779999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56C8-49D2-B91E-207E355F0C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$8,Sheet1!$H$8,Sheet1!$L$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71644540000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36810420000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31148820000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56C8-49D2-B91E-207E355F0C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$A$7,Sheet1!$B$26,Sheet1!$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-56C8-49D2-B91E-207E355F0C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="198931472"/>
+        <c:axId val="198931056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198931472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198931056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198931056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198931472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Nodes for 64 Processes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$19,Sheet1!$I$19,Sheet1!$M$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45932959999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2797152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38400040000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F682-45F0-BA99-70B0907BCA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$19,Sheet1!$J$19,Sheet1!$N$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.43954860000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41518860000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62934425000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F682-45F0-BA99-70B0907BCA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$19,Sheet1!$H$19,Sheet1!$L$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.696272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29953940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23960919999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F682-45F0-BA99-70B0907BCA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$A$7,Sheet1!$B$26,Sheet1!$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7673428000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F682-45F0-BA99-70B0907BCA0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="198931472"/>
+        <c:axId val="198931056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198931472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198931056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198931056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198931472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for 48 Processes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$H$9,Sheet1!$L$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0710415615760811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0845803987023239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4634730946469241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-181A-4CFB-BEE5-C017C54BCE46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$9,Sheet1!$I$9,Sheet1!$M$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6618273580476215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7840177601331686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89587841857849915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-181A-4CFB-BEE5-C017C54BCE46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$9,Sheet1!$J$9,Sheet1!$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6820271406563596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47517193291860549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0982470533040181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-181A-4CFB-BEE5-C017C54BCE46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="700719392"/>
+        <c:axId val="728782944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700719392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numbe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>r of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728782944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728782944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Parallelism</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700719392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for 64 Processes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$20,Sheet1!$H$20,Sheet1!$L$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1020733276650505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5617424619265448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2024763656821196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE71-4FF5-8FFF-5CE1D745DDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$20,Sheet1!$I$20,Sheet1!$M$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6705711976759177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7433003283339628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9982864601182708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE71-4FF5-8FFF-5CE1D745DDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$20,Sheet1!$J$20,Sheet1!$N$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7457518918272066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.848178875816918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2192735533851307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE71-4FF5-8FFF-5CE1D745DDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="700719392"/>
+        <c:axId val="728782944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700719392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numbe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>r of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728782944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728782944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Parallelism</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700719392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,20 +5094,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -440,7 +5116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0.78800000000000003</v>
       </c>
@@ -473,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>0.74887400000000004</v>
       </c>
@@ -506,7 +5182,7 @@
         <v>0.66251599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>0.75566500000000003</v>
       </c>
@@ -539,7 +5215,7 @@
         <v>0.70514900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>0.74715200000000004</v>
       </c>
@@ -572,7 +5248,7 @@
         <v>0.71439200000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>0.79702300000000004</v>
       </c>
@@ -605,7 +5281,7 @@
         <v>0.70303099999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>0.7673428000000001</v>
@@ -638,7 +5314,7 @@
         <v>0.70840099999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -679,240 +5355,338 @@
         <v>0.69869779999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C9">
+        <f>A7/C8</f>
+        <v>1.0710415615760811</v>
+      </c>
+      <c r="D9">
+        <f>A7/D8</f>
+        <v>1.6618273580476215</v>
+      </c>
+      <c r="E9">
+        <f>A7/E8</f>
+        <v>1.6820271406563596</v>
+      </c>
+      <c r="H9">
+        <f>A7/H8</f>
+        <v>2.0845803987023239</v>
+      </c>
+      <c r="I9">
+        <f>A7/I8</f>
+        <v>0.7840177601331686</v>
+      </c>
+      <c r="J9">
+        <f>A7/J8</f>
+        <v>0.47517193291860549</v>
+      </c>
+      <c r="L9">
+        <f>A7/L8</f>
+        <v>2.4634730946469241</v>
+      </c>
+      <c r="M9">
+        <f>A7/M8</f>
+        <v>0.89587841857849915</v>
+      </c>
+      <c r="N9">
+        <f>A7/N8</f>
+        <v>1.0982470533040181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="13" spans="1:14">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
+    <row r="14" spans="1:14">
+      <c r="C14" s="1">
         <v>0.69660100000000003</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.46983000000000003</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>0.45722400000000002</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.30648300000000001</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.29967700000000003</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>0.42455900000000002</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>0.23449200000000001</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>0.37569399999999997</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="1">
         <v>0.68178300000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14">
+    <row r="15" spans="1:14">
+      <c r="C15">
         <v>0.69727099999999997</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.45286399999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>0.45463700000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>0.29996600000000001</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.27054099999999998</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.41519299999999998</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.25498199999999999</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>0.38150800000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="1">
         <v>0.67142000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
+    <row r="16" spans="1:14">
+      <c r="C16" s="1">
         <v>0.69503099999999995</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.455563</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.42355300000000001</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="H15">
+      <c r="F16" s="1"/>
+      <c r="H16">
         <v>0.307786</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>0.27842800000000001</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <v>0.425923</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>0.233707</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>0.407885</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>0.48444300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16">
+    <row r="17" spans="1:14">
+      <c r="C17">
         <v>0.69994400000000001</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.45458900000000002</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>0.43980799999999998</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>0.30602600000000002</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>0.27968399999999999</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>0.40319199999999999</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.23200499999999999</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.38529099999999999</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="1">
         <v>0.67973099999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
+    <row r="18" spans="1:14">
+      <c r="C18" s="1">
         <v>0.69251300000000005</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>0.46380199999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>0.42252099999999998</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1">
+      <c r="F18" s="1"/>
+      <c r="H18" s="1">
         <v>0.27743600000000002</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <v>0.27024599999999999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <v>0.40707599999999999</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <v>0.24285999999999999</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>0.36962400000000001</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>10</v>
+      <c r="N18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:14" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
-        <f>AVERAGE(C13:C17)</f>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
         <v>0.696272</v>
       </c>
-      <c r="D18" s="2">
-        <f>AVERAGE(D13:D17)</f>
+      <c r="D19" s="2">
+        <f>AVERAGE(D14:D18)</f>
         <v>0.45932959999999995</v>
       </c>
-      <c r="E18" s="2">
-        <f>AVERAGE(E13:E17)</f>
+      <c r="E19" s="2">
+        <f>AVERAGE(E14:E18)</f>
         <v>0.43954860000000001</v>
       </c>
-      <c r="H18" s="2">
-        <f>AVERAGE(H13:H17)</f>
+      <c r="H19" s="2">
+        <f>AVERAGE(H14:H18)</f>
         <v>0.29953940000000001</v>
       </c>
-      <c r="I18" s="2">
-        <f>AVERAGE(I13:I17)</f>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
         <v>0.2797152</v>
       </c>
-      <c r="J18" s="2">
-        <f>AVERAGE(J13:J17)</f>
+      <c r="J19" s="2">
+        <f>AVERAGE(J14:J18)</f>
         <v>0.41518860000000002</v>
       </c>
-      <c r="L18" s="2">
-        <f>AVERAGE(L13:L17)</f>
+      <c r="L19" s="2">
+        <f>AVERAGE(L14:L18)</f>
         <v>0.23960919999999999</v>
       </c>
-      <c r="M18" s="2">
-        <f>AVERAGE(M13:M17)</f>
+      <c r="M19" s="2">
+        <f>AVERAGE(M14:M18)</f>
         <v>0.38400040000000002</v>
       </c>
-      <c r="N18" s="2">
-        <f>AVERAGE(N13:N17)</f>
+      <c r="N19" s="2">
+        <f>AVERAGE(N14:N18)</f>
         <v>0.62934425000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J19" t="s">
-        <v>9</v>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f>A7/C19</f>
+        <v>1.1020733276650505</v>
+      </c>
+      <c r="D20">
+        <f>A7/D19</f>
+        <v>1.6705711976759177</v>
+      </c>
+      <c r="E20">
+        <f>A7/E19</f>
+        <v>1.7457518918272066</v>
+      </c>
+      <c r="H20">
+        <f>A7/H19</f>
+        <v>2.5617424619265448</v>
+      </c>
+      <c r="I20">
+        <f>A7/I19</f>
+        <v>2.7433003283339628</v>
+      </c>
+      <c r="J20">
+        <f>A7/J19</f>
+        <v>1.848178875816918</v>
+      </c>
+      <c r="L20">
+        <f>A7/L19</f>
+        <v>3.2024763656821196</v>
+      </c>
+      <c r="M20">
+        <f>A7/M19</f>
+        <v>1.9982864601182708</v>
+      </c>
+      <c r="N20">
+        <f>A7/N19</f>
+        <v>1.2192735533851307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26">
+        <v>0.7673428000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27">
+        <v>0.7673428000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>